--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il11-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il11-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il11</t>
+  </si>
+  <si>
+    <t>Il6st</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il11</t>
-  </si>
-  <si>
-    <t>Il6st</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.06162</v>
+        <v>0.4407625</v>
       </c>
       <c r="H2">
-        <v>0.12324</v>
+        <v>0.881525</v>
       </c>
       <c r="I2">
-        <v>0.009272539064069453</v>
+        <v>0.04182603576563167</v>
       </c>
       <c r="J2">
-        <v>0.007170225064428173</v>
+        <v>0.03589637151931125</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N2">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O2">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P2">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q2">
-        <v>5.34722511336</v>
+        <v>22.30577736698125</v>
       </c>
       <c r="R2">
-        <v>21.38890045344</v>
+        <v>89.223109467925</v>
       </c>
       <c r="S2">
-        <v>0.002481415487475437</v>
+        <v>0.008519629281321162</v>
       </c>
       <c r="T2">
-        <v>0.001464076819611733</v>
+        <v>0.005510703518515523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.06162</v>
+        <v>0.4407625</v>
       </c>
       <c r="H3">
-        <v>0.12324</v>
+        <v>0.881525</v>
       </c>
       <c r="I3">
-        <v>0.009272539064069453</v>
+        <v>0.04182603576563167</v>
       </c>
       <c r="J3">
-        <v>0.007170225064428173</v>
+        <v>0.03589637151931125</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>386.726074</v>
       </c>
       <c r="O3">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P3">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q3">
-        <v>7.94335355996</v>
+        <v>56.81811706380834</v>
       </c>
       <c r="R3">
-        <v>47.66012135976001</v>
+        <v>340.90870238285</v>
       </c>
       <c r="S3">
-        <v>0.003686166213000966</v>
+        <v>0.02170152090565165</v>
       </c>
       <c r="T3">
-        <v>0.003262349977017364</v>
+        <v>0.0210556076437696</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.06162</v>
+        <v>0.4407625</v>
       </c>
       <c r="H4">
-        <v>0.12324</v>
+        <v>0.881525</v>
       </c>
       <c r="I4">
-        <v>0.009272539064069453</v>
+        <v>0.04182603576563167</v>
       </c>
       <c r="J4">
-        <v>0.007170225064428173</v>
+        <v>0.03589637151931125</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N4">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O4">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P4">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q4">
-        <v>0.7720732331000001</v>
+        <v>7.388436113887501</v>
       </c>
       <c r="R4">
-        <v>4.632439398600001</v>
+        <v>44.330616683325</v>
       </c>
       <c r="S4">
-        <v>0.0003582857346500854</v>
+        <v>0.002821992509986464</v>
       </c>
       <c r="T4">
-        <v>0.0003170919027142222</v>
+        <v>0.002738000130140985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.06162</v>
+        <v>0.4407625</v>
       </c>
       <c r="H5">
-        <v>0.12324</v>
+        <v>0.881525</v>
       </c>
       <c r="I5">
-        <v>0.009272539064069453</v>
+        <v>0.04182603576563167</v>
       </c>
       <c r="J5">
-        <v>0.007170225064428173</v>
+        <v>0.03589637151931125</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N5">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O5">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P5">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q5">
-        <v>2.22181055733</v>
+        <v>15.61952439946875</v>
       </c>
       <c r="R5">
-        <v>8.88724222932</v>
+        <v>62.47809759787499</v>
       </c>
       <c r="S5">
-        <v>0.001031046011775401</v>
+        <v>0.005965833660252014</v>
       </c>
       <c r="T5">
-        <v>0.0006083344661192832</v>
+        <v>0.003858846371931686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.06162</v>
+        <v>0.4407625</v>
       </c>
       <c r="H6">
-        <v>0.12324</v>
+        <v>0.881525</v>
       </c>
       <c r="I6">
-        <v>0.009272539064069453</v>
+        <v>0.04182603576563167</v>
       </c>
       <c r="J6">
-        <v>0.007170225064428173</v>
+        <v>0.03589637151931125</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N6">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O6">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P6">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q6">
-        <v>2.63224468858</v>
+        <v>1.49992007665</v>
       </c>
       <c r="R6">
-        <v>15.79346813148</v>
+        <v>8.999520459900001</v>
       </c>
       <c r="S6">
-        <v>0.001221510708563211</v>
+        <v>0.0005728902783538466</v>
       </c>
       <c r="T6">
-        <v>0.001081067754881136</v>
+        <v>0.0005558390573817864</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.06162</v>
+        <v>0.4407625</v>
       </c>
       <c r="H7">
-        <v>0.12324</v>
+        <v>0.881525</v>
       </c>
       <c r="I7">
-        <v>0.009272539064069453</v>
+        <v>0.04182603576563167</v>
       </c>
       <c r="J7">
-        <v>0.007170225064428173</v>
+        <v>0.03589637151931125</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N7">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O7">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P7">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q7">
-        <v>1.06477277244</v>
+        <v>5.8756003737</v>
       </c>
       <c r="R7">
-        <v>6.388636634640001</v>
+        <v>35.2536022422</v>
       </c>
       <c r="S7">
-        <v>0.0004941149086043527</v>
+        <v>0.002244169130066533</v>
       </c>
       <c r="T7">
-        <v>0.0004373041440844339</v>
+        <v>0.002177374797571672</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>10.14401</v>
       </c>
       <c r="I8">
-        <v>0.5088214269788551</v>
+        <v>0.3208710095701012</v>
       </c>
       <c r="J8">
-        <v>0.5901885325852809</v>
+        <v>0.4130718376173206</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N8">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O8">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P8">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q8">
-        <v>293.4236991354266</v>
+        <v>171.1201449521616</v>
       </c>
       <c r="R8">
-        <v>1760.54219481256</v>
+        <v>1026.72086971297</v>
       </c>
       <c r="S8">
-        <v>0.136165225138514</v>
+        <v>0.06535886078180023</v>
       </c>
       <c r="T8">
-        <v>0.120509655135586</v>
+        <v>0.06341355219518069</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>10.14401</v>
       </c>
       <c r="I9">
-        <v>0.5088214269788551</v>
+        <v>0.3208710095701012</v>
       </c>
       <c r="J9">
-        <v>0.5901885325852809</v>
+        <v>0.4130718376173206</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>386.726074</v>
       </c>
       <c r="O9">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P9">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q9">
         <v>435.8836846574155</v>
@@ -1013,10 +1013,10 @@
         <v>3922.95316191674</v>
       </c>
       <c r="S9">
-        <v>0.2022747318313531</v>
+        <v>0.1664845542910595</v>
       </c>
       <c r="T9">
-        <v>0.2685273514310606</v>
+        <v>0.2422940863781234</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>10.14401</v>
       </c>
       <c r="I10">
-        <v>0.5088214269788551</v>
+        <v>0.3208710095701012</v>
       </c>
       <c r="J10">
-        <v>0.5901885325852809</v>
+        <v>0.4130718376173206</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N10">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O10">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P10">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q10">
-        <v>42.36675644973889</v>
+        <v>56.68084272417</v>
       </c>
       <c r="R10">
-        <v>381.30080804765</v>
+        <v>510.12758451753</v>
       </c>
       <c r="S10">
-        <v>0.01966057597721417</v>
+        <v>0.02164908935555073</v>
       </c>
       <c r="T10">
-        <v>0.02610015767650192</v>
+        <v>0.03150710496032609</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>10.14401</v>
       </c>
       <c r="I11">
-        <v>0.5088214269788551</v>
+        <v>0.3208710095701012</v>
       </c>
       <c r="J11">
-        <v>0.5901885325852809</v>
+        <v>0.4130718376173206</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N11">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O11">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P11">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q11">
-        <v>121.9196608874883</v>
+        <v>119.826143485025</v>
       </c>
       <c r="R11">
-        <v>731.5179653249299</v>
+        <v>718.9568609101499</v>
       </c>
       <c r="S11">
-        <v>0.05657763201292754</v>
+        <v>0.04576726037864914</v>
       </c>
       <c r="T11">
-        <v>0.05007262989012227</v>
+        <v>0.04440506643071806</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>10.14401</v>
       </c>
       <c r="I12">
-        <v>0.5088214269788551</v>
+        <v>0.3208710095701012</v>
       </c>
       <c r="J12">
-        <v>0.5901885325852809</v>
+        <v>0.4130718376173206</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N12">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O12">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P12">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q12">
-        <v>144.4418286454744</v>
+        <v>11.50672925270667</v>
       </c>
       <c r="R12">
-        <v>1299.97645780927</v>
+        <v>103.56056327436</v>
       </c>
       <c r="S12">
-        <v>0.06702919421601373</v>
+        <v>0.004394963056464047</v>
       </c>
       <c r="T12">
-        <v>0.0889837886740652</v>
+        <v>0.006396230346809694</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>10.14401</v>
       </c>
       <c r="I13">
-        <v>0.5088214269788551</v>
+        <v>0.3208710095701012</v>
       </c>
       <c r="J13">
-        <v>0.5901885325852809</v>
+        <v>0.4130718376173206</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N13">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O13">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P13">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q13">
-        <v>58.42835470820667</v>
+        <v>45.07503016312</v>
       </c>
       <c r="R13">
-        <v>525.8551923738601</v>
+        <v>405.67527146808</v>
       </c>
       <c r="S13">
-        <v>0.02711406780283263</v>
+        <v>0.01721628170657759</v>
       </c>
       <c r="T13">
-        <v>0.03599494977794497</v>
+        <v>0.02505579730616263</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2.686922</v>
+        <v>6.6157225</v>
       </c>
       <c r="H14">
-        <v>5.373844</v>
+        <v>13.231445</v>
       </c>
       <c r="I14">
-        <v>0.4043263422120679</v>
+        <v>0.6277971603766068</v>
       </c>
       <c r="J14">
-        <v>0.3126555577825945</v>
+        <v>0.5387945497374814</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N14">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O14">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P14">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q14">
-        <v>233.164180396616</v>
+        <v>334.8035125645413</v>
       </c>
       <c r="R14">
-        <v>932.6567215864638</v>
+        <v>1339.214050258165</v>
       </c>
       <c r="S14">
-        <v>0.1082013934508029</v>
+        <v>0.1278772652575826</v>
       </c>
       <c r="T14">
-        <v>0.06384063966739366</v>
+        <v>0.08271412667427995</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2.686922</v>
+        <v>6.6157225</v>
       </c>
       <c r="H15">
-        <v>5.373844</v>
+        <v>13.231445</v>
       </c>
       <c r="I15">
-        <v>0.4043263422120679</v>
+        <v>0.6277971603766068</v>
       </c>
       <c r="J15">
-        <v>0.3126555577825945</v>
+        <v>0.5387945497374814</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>386.726074</v>
       </c>
       <c r="O15">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P15">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q15">
-        <v>346.3675987347427</v>
+        <v>852.8241296994884</v>
       </c>
       <c r="R15">
-        <v>2078.205592408456</v>
+        <v>5116.944778196931</v>
       </c>
       <c r="S15">
-        <v>0.1607341949589254</v>
+        <v>0.3257337911908114</v>
       </c>
       <c r="T15">
-        <v>0.1422538124788616</v>
+        <v>0.3160388128301717</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>2.686922</v>
+        <v>6.6157225</v>
       </c>
       <c r="H16">
-        <v>5.373844</v>
+        <v>13.231445</v>
       </c>
       <c r="I16">
-        <v>0.4043263422120679</v>
+        <v>0.6277971603766068</v>
       </c>
       <c r="J16">
-        <v>0.3126555577825945</v>
+        <v>0.5387945497374814</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N16">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O16">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P16">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q16">
-        <v>33.66602654377667</v>
+        <v>110.8983705248475</v>
       </c>
       <c r="R16">
-        <v>201.99615926266</v>
+        <v>665.390223149085</v>
       </c>
       <c r="S16">
-        <v>0.01562294421807005</v>
+        <v>0.04235732246538425</v>
       </c>
       <c r="T16">
-        <v>0.01382669927660992</v>
+        <v>0.0410966202115122</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>2.686922</v>
+        <v>6.6157225</v>
       </c>
       <c r="H17">
-        <v>5.373844</v>
+        <v>13.231445</v>
       </c>
       <c r="I17">
-        <v>0.4043263422120679</v>
+        <v>0.6277971603766068</v>
       </c>
       <c r="J17">
-        <v>0.3126555577825945</v>
+        <v>0.5387945497374814</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N17">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O17">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P17">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q17">
-        <v>96.881396727073</v>
+        <v>234.4447157116687</v>
       </c>
       <c r="R17">
-        <v>387.525586908292</v>
+        <v>937.7788628466749</v>
       </c>
       <c r="S17">
-        <v>0.04495845848834119</v>
+        <v>0.08954550347950792</v>
       </c>
       <c r="T17">
-        <v>0.02652624570552023</v>
+        <v>0.05792021046897552</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>2.686922</v>
+        <v>6.6157225</v>
       </c>
       <c r="H18">
-        <v>5.373844</v>
+        <v>13.231445</v>
       </c>
       <c r="I18">
-        <v>0.4043263422120679</v>
+        <v>0.6277971603766068</v>
       </c>
       <c r="J18">
-        <v>0.3126555577825945</v>
+        <v>0.5387945497374814</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N18">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O18">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P18">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q18">
-        <v>114.7782564610313</v>
+        <v>22.51338305617</v>
       </c>
       <c r="R18">
-        <v>688.669538766188</v>
+        <v>135.08029833702</v>
       </c>
       <c r="S18">
-        <v>0.05326361564547356</v>
+        <v>0.008598923693682668</v>
       </c>
       <c r="T18">
-        <v>0.04713964190329005</v>
+        <v>0.008342989610730215</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2.686922</v>
+        <v>6.6157225</v>
       </c>
       <c r="H19">
-        <v>5.373844</v>
+        <v>13.231445</v>
       </c>
       <c r="I19">
-        <v>0.4043263422120679</v>
+        <v>0.6277971603766068</v>
       </c>
       <c r="J19">
-        <v>0.3126555577825945</v>
+        <v>0.5387945497374814</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N19">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O19">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P19">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q19">
-        <v>46.429103980364</v>
+        <v>88.19112695226001</v>
       </c>
       <c r="R19">
-        <v>278.574623882184</v>
+        <v>529.1467617135601</v>
       </c>
       <c r="S19">
-        <v>0.02154573545045479</v>
+        <v>0.03368435428963806</v>
       </c>
       <c r="T19">
-        <v>0.01906851875091911</v>
+        <v>0.03268178994181187</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.320074</v>
+        <v>0.100172</v>
       </c>
       <c r="H20">
-        <v>0.960222</v>
+        <v>0.300516</v>
       </c>
       <c r="I20">
-        <v>0.04816453535204424</v>
+        <v>0.00950579428766026</v>
       </c>
       <c r="J20">
-        <v>0.05586666546425956</v>
+        <v>0.01223724112588678</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N20">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O20">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P20">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q20">
-        <v>27.775198489672</v>
+        <v>5.069429296741999</v>
       </c>
       <c r="R20">
-        <v>166.651190938032</v>
+        <v>30.416575780452</v>
       </c>
       <c r="S20">
-        <v>0.01288926615933484</v>
+        <v>0.00193625434189275</v>
       </c>
       <c r="T20">
-        <v>0.01140732531549186</v>
+        <v>0.001878624631825769</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.320074</v>
+        <v>0.100172</v>
       </c>
       <c r="H21">
-        <v>0.960222</v>
+        <v>0.300516</v>
       </c>
       <c r="I21">
-        <v>0.04816453535204424</v>
+        <v>0.00950579428766026</v>
       </c>
       <c r="J21">
-        <v>0.05586666546425956</v>
+        <v>0.01223724112588678</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>386.726074</v>
       </c>
       <c r="O21">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P21">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q21">
-        <v>41.26032046982534</v>
+        <v>12.91304142824267</v>
       </c>
       <c r="R21">
-        <v>371.342884228428</v>
+        <v>116.217372854184</v>
       </c>
       <c r="S21">
-        <v>0.01914712697922868</v>
+        <v>0.00493210005878662</v>
       </c>
       <c r="T21">
-        <v>0.02541853472599454</v>
+        <v>0.007177955232891936</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,13 +1768,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.320074</v>
+        <v>0.100172</v>
       </c>
       <c r="H22">
-        <v>0.960222</v>
+        <v>0.300516</v>
       </c>
       <c r="I22">
-        <v>0.04816453535204424</v>
+        <v>0.00950579428766026</v>
       </c>
       <c r="J22">
-        <v>0.05586666546425956</v>
+        <v>0.01223724112588678</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N22">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O22">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P22">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q22">
-        <v>4.010395456203334</v>
+        <v>1.679168310372</v>
       </c>
       <c r="R22">
-        <v>36.09355910583</v>
+        <v>15.112514793348</v>
       </c>
       <c r="S22">
-        <v>0.001861050766510734</v>
+        <v>0.0006413536399089399</v>
       </c>
       <c r="T22">
-        <v>0.002470615230510028</v>
+        <v>0.0009333970643027122</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.320074</v>
+        <v>0.100172</v>
       </c>
       <c r="H23">
-        <v>0.960222</v>
+        <v>0.300516</v>
       </c>
       <c r="I23">
-        <v>0.04816453535204424</v>
+        <v>0.00950579428766026</v>
       </c>
       <c r="J23">
-        <v>0.05586666546425956</v>
+        <v>0.01223724112588678</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N23">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O23">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P23">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q23">
-        <v>11.540795071841</v>
+        <v>3.549846001289999</v>
       </c>
       <c r="R23">
-        <v>69.24477043104601</v>
+        <v>21.29907600774</v>
       </c>
       <c r="S23">
-        <v>0.005355582946656925</v>
+        <v>0.001355853752110864</v>
       </c>
       <c r="T23">
-        <v>0.004739825849772723</v>
+        <v>0.001315498796185499</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.320074</v>
+        <v>0.100172</v>
       </c>
       <c r="H24">
-        <v>0.960222</v>
+        <v>0.300516</v>
       </c>
       <c r="I24">
-        <v>0.04816453535204424</v>
+        <v>0.00950579428766026</v>
       </c>
       <c r="J24">
-        <v>0.05586666546425956</v>
+        <v>0.01223724112588678</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N24">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O24">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P24">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q24">
-        <v>13.67272129913267</v>
+        <v>0.3408865180640001</v>
       </c>
       <c r="R24">
-        <v>123.054491692194</v>
+        <v>3.067978662576</v>
       </c>
       <c r="S24">
-        <v>0.006344917535421313</v>
+        <v>0.0001302006521953695</v>
       </c>
       <c r="T24">
-        <v>0.008423117832907129</v>
+        <v>0.0001894881372259947</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.320074</v>
+        <v>0.100172</v>
       </c>
       <c r="H25">
-        <v>0.960222</v>
+        <v>0.300516</v>
       </c>
       <c r="I25">
-        <v>0.04816453535204424</v>
+        <v>0.00950579428766026</v>
       </c>
       <c r="J25">
-        <v>0.05586666546425956</v>
+        <v>0.01223724112588678</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N25">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O25">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P25">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q25">
-        <v>5.530770534988001</v>
+        <v>1.335346452192</v>
       </c>
       <c r="R25">
-        <v>49.77693481489201</v>
+        <v>12.018118069728</v>
       </c>
       <c r="S25">
-        <v>0.002566590964891749</v>
+        <v>0.000510031842765718</v>
       </c>
       <c r="T25">
-        <v>0.003407246509583279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.1954763333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.586429</v>
-      </c>
-      <c r="I26">
-        <v>0.02941515639296324</v>
-      </c>
-      <c r="J26">
-        <v>0.03411901910343678</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>86.77742799999999</v>
-      </c>
-      <c r="N26">
-        <v>173.554856</v>
-      </c>
-      <c r="O26">
-        <v>0.2676090626666408</v>
-      </c>
-      <c r="P26">
-        <v>0.2041884050300022</v>
-      </c>
-      <c r="Q26">
-        <v>16.96293344153733</v>
-      </c>
-      <c r="R26">
-        <v>101.777600649224</v>
-      </c>
-      <c r="S26">
-        <v>0.007871762430513539</v>
-      </c>
-      <c r="T26">
-        <v>0.00696670809191893</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.1954763333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.586429</v>
-      </c>
-      <c r="I27">
-        <v>0.02941515639296324</v>
-      </c>
-      <c r="J27">
-        <v>0.03411901910343678</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>128.9086913333333</v>
-      </c>
-      <c r="N27">
-        <v>386.726074</v>
-      </c>
-      <c r="O27">
-        <v>0.3975357976419474</v>
-      </c>
-      <c r="P27">
-        <v>0.4549857149118006</v>
-      </c>
-      <c r="Q27">
-        <v>25.19859831663845</v>
-      </c>
-      <c r="R27">
-        <v>226.787384849746</v>
-      </c>
-      <c r="S27">
-        <v>0.01169357765943927</v>
-      </c>
-      <c r="T27">
-        <v>0.01552366629886657</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.1954763333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.586429</v>
-      </c>
-      <c r="I28">
-        <v>0.02941515639296324</v>
-      </c>
-      <c r="J28">
-        <v>0.03411901910343678</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>12.52958833333333</v>
-      </c>
-      <c r="N28">
-        <v>37.588765</v>
-      </c>
-      <c r="O28">
-        <v>0.03863944192356349</v>
-      </c>
-      <c r="P28">
-        <v>0.04422342393230168</v>
-      </c>
-      <c r="Q28">
-        <v>2.449237985576111</v>
-      </c>
-      <c r="R28">
-        <v>22.043141870185</v>
-      </c>
-      <c r="S28">
-        <v>0.00113658522711844</v>
-      </c>
-      <c r="T28">
-        <v>0.001508859845965584</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.1954763333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.586429</v>
-      </c>
-      <c r="I29">
-        <v>0.02941515639296324</v>
-      </c>
-      <c r="J29">
-        <v>0.03411901910343678</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>36.0566465</v>
-      </c>
-      <c r="N29">
-        <v>72.113293</v>
-      </c>
-      <c r="O29">
-        <v>0.111193493459698</v>
-      </c>
-      <c r="P29">
-        <v>0.08484175331361067</v>
-      </c>
-      <c r="Q29">
-        <v>7.048221050116166</v>
-      </c>
-      <c r="R29">
-        <v>42.289326300697</v>
-      </c>
-      <c r="S29">
-        <v>0.003270773999996952</v>
-      </c>
-      <c r="T29">
-        <v>0.002894717402076153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.1954763333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.586429</v>
-      </c>
-      <c r="I30">
-        <v>0.02941515639296324</v>
-      </c>
-      <c r="J30">
-        <v>0.03411901910343678</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>42.71737566666667</v>
-      </c>
-      <c r="N30">
-        <v>128.152127</v>
-      </c>
-      <c r="O30">
-        <v>0.1317342208129911</v>
-      </c>
-      <c r="P30">
-        <v>0.1507718021634167</v>
-      </c>
-      <c r="Q30">
-        <v>8.350235964942556</v>
-      </c>
-      <c r="R30">
-        <v>75.152123684483</v>
-      </c>
-      <c r="S30">
-        <v>0.003874982707519287</v>
-      </c>
-      <c r="T30">
-        <v>0.005144185998273206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.1954763333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.586429</v>
-      </c>
-      <c r="I31">
-        <v>0.02941515639296324</v>
-      </c>
-      <c r="J31">
-        <v>0.03411901910343678</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>17.279662</v>
-      </c>
-      <c r="N31">
-        <v>51.83898600000001</v>
-      </c>
-      <c r="O31">
-        <v>0.05328798349515928</v>
-      </c>
-      <c r="P31">
-        <v>0.06098890064886813</v>
-      </c>
-      <c r="Q31">
-        <v>3.377764968999334</v>
-      </c>
-      <c r="R31">
-        <v>30.399884720994</v>
-      </c>
-      <c r="S31">
-        <v>0.001567474368375754</v>
-      </c>
-      <c r="T31">
-        <v>0.002080881466336339</v>
+        <v>0.0007422772634548635</v>
       </c>
     </row>
   </sheetData>
